--- a/test_signup/Amsterdam/NTDS_Nijmegen.xlsx
+++ b/test_signup/Amsterdam/NTDS_Nijmegen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="22200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="281">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -860,16 +857,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,16 +1263,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1287,16 +1284,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1305,66 +1302,64 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
@@ -1379,7 +1374,7 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1387,30 +1382,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>5</v>
@@ -1425,7 +1420,7 @@
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" s="2"/>
     </row>
@@ -1434,30 +1429,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>5</v>
@@ -1481,28 +1476,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -1515,7 +1510,7 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1523,20 +1518,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H6" s="2">
         <v>38</v>
@@ -1545,10 +1540,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2"/>
@@ -1559,7 +1554,7 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1567,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="3">
         <v>7</v>
@@ -1589,10 +1584,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
@@ -1602,7 +1597,7 @@
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V7" s="2"/>
     </row>
@@ -1611,22 +1606,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1635,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1657,20 +1652,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -1679,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
@@ -1695,7 +1690,7 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1703,20 +1698,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="2">
         <v>71</v>
@@ -1725,10 +1720,10 @@
         <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
@@ -1747,22 +1742,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="2">
         <v>8</v>
@@ -1771,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
@@ -1791,20 +1786,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H12" s="2">
         <v>21</v>
@@ -1813,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L12" s="2"/>
       <c r="O12" s="2"/>
@@ -1829,7 +1824,7 @@
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1837,20 +1832,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="2">
         <v>24</v>
@@ -1859,10 +1854,10 @@
         <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
@@ -1879,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1918,7 +1913,7 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1926,28 +1921,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
@@ -1966,30 +1961,30 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
@@ -2001,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2012,20 +2007,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="2">
         <v>60</v>
@@ -2034,10 +2029,10 @@
         <v>60</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
@@ -2050,7 +2045,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -2058,20 +2053,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="2">
         <v>18</v>
@@ -2080,10 +2075,10 @@
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
@@ -2102,20 +2097,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="2">
         <v>17</v>
@@ -2124,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="2"/>
@@ -2140,7 +2135,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2148,28 +2143,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
@@ -2188,22 +2183,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="2">
         <v>22</v>
@@ -2212,10 +2207,10 @@
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
@@ -2234,20 +2229,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="2">
         <v>11</v>
@@ -2256,10 +2251,10 @@
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
@@ -2278,22 +2273,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
@@ -2302,10 +2297,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
@@ -2324,20 +2319,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H24" s="2">
         <v>32</v>
@@ -2346,10 +2341,10 @@
         <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L24" s="2"/>
       <c r="O24" s="2"/>
@@ -2360,7 +2355,7 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2368,20 +2363,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H25" s="2">
         <v>12</v>
@@ -2390,10 +2385,10 @@
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L25" s="2"/>
       <c r="O25" s="2"/>
@@ -2412,20 +2407,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="2">
         <v>42</v>
@@ -2434,10 +2429,10 @@
         <v>42</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L26" s="2"/>
       <c r="O26" s="2"/>
@@ -2447,7 +2442,7 @@
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V26" s="2"/>
     </row>
@@ -2456,28 +2451,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>5</v>
@@ -2501,20 +2496,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H28" s="2">
         <v>28</v>
@@ -2523,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L28" s="2"/>
       <c r="O28" s="2"/>
@@ -2539,7 +2534,7 @@
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2547,20 +2542,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H29" s="2">
         <v>27</v>
@@ -2569,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
@@ -2584,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -2593,28 +2588,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>5</v>
@@ -2640,32 +2635,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="2">
         <v>75</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L31" s="2"/>
       <c r="O31" s="2"/>
@@ -2684,28 +2679,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L32" s="2"/>
       <c r="O32" s="2"/>
@@ -2724,20 +2719,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H33" s="2">
         <v>23</v>
@@ -2746,14 +2741,14 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="2"/>
@@ -2762,7 +2757,7 @@
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2770,20 +2765,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2">
         <v>62</v>
@@ -2792,10 +2787,10 @@
         <v>62</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
@@ -2805,7 +2800,7 @@
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -2814,20 +2809,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="2">
         <v>35</v>
@@ -2836,10 +2831,10 @@
         <v>35</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L35" s="2"/>
       <c r="O35" s="2" t="s">
@@ -2860,20 +2855,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H36" s="2">
         <v>34</v>
@@ -2882,10 +2877,10 @@
         <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L36" s="2"/>
       <c r="O36" s="2" t="s">
@@ -2906,22 +2901,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="2">
         <v>39</v>
@@ -2930,10 +2925,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L37" s="2"/>
       <c r="O37" s="2"/>
@@ -2952,20 +2947,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H38" s="2">
         <v>44</v>
@@ -2974,10 +2969,10 @@
         <v>44</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
@@ -2996,22 +2991,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2">
         <v>5</v>
@@ -3020,10 +3015,10 @@
         <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
@@ -3035,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V39" s="2"/>
     </row>
@@ -3044,20 +3039,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="2">
         <v>36</v>
@@ -3066,10 +3061,10 @@
         <v>36</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
@@ -3088,28 +3083,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L41" s="2"/>
       <c r="O41" s="2"/>
@@ -3120,7 +3115,7 @@
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3128,24 +3123,24 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L42" s="2"/>
       <c r="N42" t="s">
@@ -3156,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="R42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -3168,20 +3163,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H43" s="2">
         <v>25</v>
@@ -3190,10 +3185,10 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L43" s="2"/>
       <c r="O43" s="2"/>
@@ -3205,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>5</v>
@@ -3216,22 +3211,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H44" s="2">
         <v>46</v>
@@ -3240,10 +3235,10 @@
         <v>46</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L44" s="2"/>
       <c r="O44" s="2"/>
@@ -3256,7 +3251,7 @@
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3264,20 +3259,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H45" s="2">
         <v>37</v>
@@ -3286,14 +3281,14 @@
         <v>37</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
@@ -3303,10 +3298,10 @@
         <v>5</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3314,20 +3309,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H46" s="2">
         <v>52</v>
@@ -3336,10 +3331,10 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
@@ -3351,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -3360,20 +3355,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="2">
         <v>43</v>
@@ -3382,10 +3377,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L47" s="2"/>
       <c r="O47" s="2"/>
@@ -3404,28 +3399,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -3434,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="2" t="s">
@@ -3453,20 +3448,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H49" s="2">
         <v>50</v>
@@ -3475,10 +3470,10 @@
         <v>50</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L49" s="2"/>
       <c r="O49" s="2"/>
@@ -3497,28 +3492,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>5</v>
@@ -3527,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>5</v>
@@ -3538,7 +3533,7 @@
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -3546,22 +3541,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H51" s="2">
         <v>48</v>
@@ -3570,10 +3565,10 @@
         <v>48</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L51" s="2"/>
       <c r="O51" s="2"/>
@@ -3585,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V51" s="2"/>
     </row>
@@ -3594,28 +3589,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
@@ -3634,20 +3629,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H53" s="2">
         <v>45</v>
@@ -3656,10 +3651,10 @@
         <v>45</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L53" s="2"/>
       <c r="O53" s="2" t="s">
@@ -3674,7 +3669,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3682,20 +3677,20 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H54" s="2">
         <v>74</v>
@@ -3704,10 +3699,10 @@
         <v>74</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
@@ -3717,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V54" s="2"/>
     </row>
@@ -3726,22 +3721,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H55" s="2">
         <v>61</v>
@@ -3750,10 +3745,10 @@
         <v>61</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>
@@ -3772,30 +3767,30 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
@@ -3807,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -3816,20 +3811,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H57" s="2">
         <v>76</v>
@@ -3838,10 +3833,10 @@
         <v>76</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
@@ -3854,7 +3849,7 @@
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -3862,20 +3857,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H58" s="2">
         <v>65</v>
@@ -3884,10 +3879,10 @@
         <v>65</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
@@ -3906,30 +3901,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
@@ -3948,20 +3943,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H60" s="2">
         <v>80</v>
@@ -3970,10 +3965,10 @@
         <v>80</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
@@ -3990,20 +3985,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H61" s="2">
         <v>16</v>
@@ -4012,10 +4007,10 @@
         <v>16</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L61" s="2"/>
       <c r="O61" s="2" t="s">
@@ -4030,7 +4025,7 @@
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4038,20 +4033,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H62" s="2">
         <v>54</v>
@@ -4060,10 +4055,10 @@
         <v>54</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
@@ -4082,22 +4077,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H63" s="2">
         <v>33</v>
@@ -4106,10 +4101,10 @@
         <v>33</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L63" s="2"/>
       <c r="O63" s="2"/>
@@ -4128,30 +4123,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2" t="s">
@@ -4174,28 +4169,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
@@ -4203,7 +4198,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V65" s="2"/>
     </row>
@@ -4212,20 +4207,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H66" s="2">
         <v>57</v>
@@ -4234,10 +4229,10 @@
         <v>57</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L66" s="2"/>
       <c r="O66" s="2"/>
@@ -4249,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -4258,20 +4253,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H67" s="2">
         <v>67</v>
@@ -4280,10 +4275,10 @@
         <v>67</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L67" s="2"/>
       <c r="O67" s="2"/>
@@ -4296,7 +4291,7 @@
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -4304,22 +4299,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H68" s="2">
         <v>66</v>
@@ -4328,10 +4323,10 @@
         <v>66</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L68" s="2"/>
       <c r="O68" s="2"/>
@@ -4344,7 +4339,7 @@
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -4352,32 +4347,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="2" t="s">
@@ -4388,7 +4383,7 @@
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -4396,22 +4391,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H70" s="2">
         <v>72</v>
@@ -4420,10 +4415,10 @@
         <v>72</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L70" s="2"/>
       <c r="O70" s="2"/>
@@ -4442,28 +4437,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
@@ -4482,20 +4477,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H72" s="3">
         <v>9</v>
@@ -4504,10 +4499,10 @@
         <v>9</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L72" s="2"/>
       <c r="O72" s="2"/>
@@ -4528,20 +4523,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H73" s="2">
         <v>69</v>
@@ -4550,14 +4545,14 @@
         <v>69</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
@@ -4567,10 +4562,10 @@
         <v>5</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4578,28 +4573,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>5</v>
@@ -4608,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="2"/>
@@ -4623,20 +4618,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H75" s="2">
         <v>53</v>
@@ -4645,10 +4640,10 @@
         <v>53</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
@@ -4667,30 +4662,30 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H76" s="2">
         <v>30</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" t="s">
@@ -4712,20 +4707,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H77" s="2">
         <v>56</v>
@@ -4734,10 +4729,10 @@
         <v>56</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
@@ -4749,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V77" s="2"/>
     </row>
@@ -4758,28 +4753,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>5</v>
@@ -4801,10 +4796,10 @@
         <v>5</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -4812,28 +4807,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
@@ -4843,7 +4838,7 @@
       </c>
       <c r="T79" s="2"/>
       <c r="U79" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V79" s="2"/>
     </row>
@@ -4852,28 +4847,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
@@ -4886,7 +4881,7 @@
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -4894,20 +4889,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H81" s="2">
         <v>59</v>
@@ -4916,10 +4911,10 @@
         <v>59</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
@@ -4936,30 +4931,30 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>

--- a/test_signup/Amsterdam/NTDS_Nijmegen.xlsx
+++ b/test_signup/Amsterdam/NTDS_Nijmegen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="3015" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1260,8 +1260,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W82"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1928,12 +1928,7 @@
       <c r="K14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="5"/>
       <c r="O14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2155,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L19" s="4"/>
       <c r="O19" s="4" t="s">
@@ -2791,10 +2786,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L33" s="4"/>
       <c r="O33" s="4" t="s">
@@ -3191,8 +3186,12 @@
       <c r="E42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="5" t="s">
@@ -3201,7 +3200,12 @@
       <c r="K42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="N42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4588,10 +4592,10 @@
         <v>9</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L72" s="4"/>
       <c r="O72" s="4" t="s">
@@ -4881,12 +4885,7 @@
         <v>28</v>
       </c>
       <c r="Q78" s="4"/>
-      <c r="S78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S78" s="5"/>
       <c r="U78" s="4" t="s">
         <v>29</v>
       </c>
@@ -5733,7 +5732,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
